--- a/log_history/Y3_B2526_Histology_scanner1759044866965_230ae40cdfa1a1feefd4906ee1ad63fbba027936afa8be1dfb8369b2a7094883.xlsx
+++ b/log_history/Y3_B2526_Histology_scanner1759044866965_230ae40cdfa1a1feefd4906ee1ad63fbba027936afa8be1dfb8369b2a7094883.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Histology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
